--- a/StructureDefinition-SzInkhundlaExtension.xlsx
+++ b/StructureDefinition-SzInkhundlaExtension.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/StructureDefinition/SzInkhundlaExtension</t>
+    <t>http://172.209.216.154:3447/fhir/StructureDefinition/SzInkhundlaExtension</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -341,7 +341,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/ValueSet/SzTinkhundlaVS</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/SzTinkhundlaVS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -692,7 +692,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.5625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.5625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-SzInkhundlaExtension.xlsx
+++ b/StructureDefinition-SzInkhundlaExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzInkhundlaExtension.xlsx
+++ b/StructureDefinition-SzInkhundlaExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzInkhundlaExtension.xlsx
+++ b/StructureDefinition-SzInkhundlaExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzInkhundlaExtension.xlsx
+++ b/StructureDefinition-SzInkhundlaExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzInkhundlaExtension.xlsx
+++ b/StructureDefinition-SzInkhundlaExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzInkhundlaExtension.xlsx
+++ b/StructureDefinition-SzInkhundlaExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzInkhundlaExtension.xlsx
+++ b/StructureDefinition-SzInkhundlaExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
